--- a/data/evaluation/evaluation_Center_Winter_Cabbage.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Cabbage.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11139.42857142857</v>
+        <v>11289.42857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>244367190.5328798</v>
+        <v>247994190.5328798</v>
       </c>
       <c r="D3" t="n">
-        <v>15632.24841578715</v>
+        <v>15747.83129617789</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4879133976885439</v>
+        <v>-0.5099976303617113</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9358.350678954623</v>
+        <v>9673.644777992837</v>
       </c>
       <c r="C4" t="n">
-        <v>151074630.3518852</v>
+        <v>158534496.0856538</v>
       </c>
       <c r="D4" t="n">
-        <v>12291.2420182781</v>
+        <v>12591.04825205804</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08013033148503146</v>
+        <v>0.03470838205709259</v>
       </c>
     </row>
     <row r="5">
